--- a/outputs/SORs/SOR Testing_Corp Business Development.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Business Development.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>

--- a/outputs/SORs/SOR Testing_Corp Business Development.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Business Development.xlsx
@@ -1168,9 +1168,7 @@
       <c r="K5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="2"/>
       <c r="M5" s="2" t="n">
         <v>0</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp Business Development.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Business Development.xlsx
@@ -1169,9 +1169,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2" t="n">
         <v>0</v>
       </c>

--- a/outputs/SORs/SOR Testing_Corp Business Development.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Business Development.xlsx
@@ -1173,9 +1173,7 @@
       <c r="N5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2" t="n">
         <v>0</v>
       </c>
